--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H2">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I2">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J2">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>422.7818613902756</v>
+        <v>23.19450175393022</v>
       </c>
       <c r="R2">
-        <v>422.7818613902756</v>
+        <v>208.750515785372</v>
       </c>
       <c r="S2">
-        <v>0.3829502173153057</v>
+        <v>0.0174625191787562</v>
       </c>
       <c r="T2">
-        <v>0.3829502173153057</v>
+        <v>0.01857754648578706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H3">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I3">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J3">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>149.2576858284533</v>
+        <v>7.848202718697778</v>
       </c>
       <c r="R3">
-        <v>149.2576858284533</v>
+        <v>70.63382446828</v>
       </c>
       <c r="S3">
-        <v>0.1351956373814776</v>
+        <v>0.005908701637481994</v>
       </c>
       <c r="T3">
-        <v>0.1351956373814776</v>
+        <v>0.006285987618241595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H4">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I4">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J4">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>139.2940014261228</v>
+        <v>7.153207125513776</v>
       </c>
       <c r="R4">
-        <v>139.2940014261228</v>
+        <v>64.37886412962399</v>
       </c>
       <c r="S4">
-        <v>0.1261706638535538</v>
+        <v>0.005385458068644815</v>
       </c>
       <c r="T4">
-        <v>0.1261706638535538</v>
+        <v>0.005729333585455348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H5">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I5">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J5">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>187.4150290387782</v>
+        <v>9.242111893983997</v>
       </c>
       <c r="R5">
-        <v>187.4150290387782</v>
+        <v>83.17900704585598</v>
       </c>
       <c r="S5">
-        <v>0.169758054100391</v>
+        <v>0.006958138524081868</v>
       </c>
       <c r="T5">
-        <v>0.169758054100391</v>
+        <v>0.007402433781887122</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H6">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I6">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J6">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>101.3212965307579</v>
+        <v>5.092897246608334</v>
       </c>
       <c r="R6">
-        <v>101.3212965307579</v>
+        <v>30.55738347965</v>
       </c>
       <c r="S6">
-        <v>0.09177549007785964</v>
+        <v>0.003834305939736903</v>
       </c>
       <c r="T6">
-        <v>0.09177549007785964</v>
+        <v>0.002719424236828635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H7">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I7">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J7">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>43.94202458791665</v>
+        <v>509.7364106433745</v>
       </c>
       <c r="R7">
-        <v>43.94202458791665</v>
+        <v>4587.62769579037</v>
       </c>
       <c r="S7">
-        <v>0.03980210458859633</v>
+        <v>0.3837668918868664</v>
       </c>
       <c r="T7">
-        <v>0.03980210458859633</v>
+        <v>0.40827140693466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H8">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I8">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J8">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>15.51316529768296</v>
+        <v>172.4768536212556</v>
       </c>
       <c r="R8">
-        <v>15.51316529768296</v>
+        <v>1552.2916825913</v>
       </c>
       <c r="S8">
-        <v>0.01405161991212283</v>
+        <v>0.1298532038413953</v>
       </c>
       <c r="T8">
-        <v>0.01405161991212283</v>
+        <v>0.1381446689333702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H9">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I9">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J9">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>14.47758523861017</v>
+        <v>157.2032097706156</v>
       </c>
       <c r="R9">
-        <v>14.47758523861017</v>
+        <v>1414.82888793554</v>
       </c>
       <c r="S9">
-        <v>0.0131136051936928</v>
+        <v>0.1183540864427601</v>
       </c>
       <c r="T9">
-        <v>0.0131136051936928</v>
+        <v>0.1259113029549637</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H10">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I10">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J10">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>19.47906607697367</v>
+        <v>203.11024541864</v>
       </c>
       <c r="R10">
-        <v>19.47906607697367</v>
+        <v>1827.99220876776</v>
       </c>
       <c r="S10">
-        <v>0.01764388037544092</v>
+        <v>0.1529162641065952</v>
       </c>
       <c r="T10">
-        <v>0.01764388037544092</v>
+        <v>0.1626803656329902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.55036166666667</v>
+      </c>
+      <c r="H11">
+        <v>34.651085</v>
+      </c>
+      <c r="I11">
+        <v>0.8691554745918758</v>
+      </c>
+      <c r="J11">
+        <v>0.8947714576067847</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N11">
+        <v>19.380275</v>
+      </c>
+      <c r="O11">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P11">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q11">
+        <v>111.9245927247292</v>
+      </c>
+      <c r="R11">
+        <v>671.5475563483751</v>
+      </c>
+      <c r="S11">
+        <v>0.08426502831425897</v>
+      </c>
+      <c r="T11">
+        <v>0.05976371315080058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.031581</v>
+      </c>
+      <c r="H12">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J12">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N12">
+        <v>132.394922</v>
+      </c>
+      <c r="O12">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P12">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q12">
+        <v>1.393721343894</v>
+      </c>
+      <c r="R12">
+        <v>12.543492095046</v>
+      </c>
+      <c r="S12">
+        <v>0.001049295473375145</v>
+      </c>
+      <c r="T12">
+        <v>0.00111629572081828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.031581</v>
+      </c>
+      <c r="H13">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J13">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N13">
+        <v>44.79778</v>
+      </c>
+      <c r="O13">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P13">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q13">
+        <v>0.47158623006</v>
+      </c>
+      <c r="R13">
+        <v>4.24427607054</v>
+      </c>
+      <c r="S13">
+        <v>0.0003550446426582403</v>
+      </c>
+      <c r="T13">
+        <v>0.0003777151673246103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.031581</v>
+      </c>
+      <c r="H14">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J14">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.830724</v>
+      </c>
+      <c r="O14">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P14">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q14">
+        <v>0.4298250315479999</v>
+      </c>
+      <c r="R14">
+        <v>3.868425283931999</v>
+      </c>
+      <c r="S14">
+        <v>0.0003236037547409097</v>
+      </c>
+      <c r="T14">
+        <v>0.000344266696868572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.031581</v>
+      </c>
+      <c r="H15">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J15">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.584752</v>
+      </c>
+      <c r="N15">
+        <v>52.754256</v>
+      </c>
+      <c r="O15">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P15">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q15">
+        <v>0.555344052912</v>
+      </c>
+      <c r="R15">
+        <v>4.998096476208</v>
+      </c>
+      <c r="S15">
+        <v>0.0004181036642936619</v>
+      </c>
+      <c r="T15">
+        <v>0.0004448006716432225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.031581</v>
+      </c>
+      <c r="H16">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J16">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N16">
+        <v>19.380275</v>
+      </c>
+      <c r="O16">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P16">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q16">
+        <v>0.3060242323875</v>
+      </c>
+      <c r="R16">
+        <v>1.836145394325</v>
+      </c>
+      <c r="S16">
+        <v>0.0002303974486679952</v>
+      </c>
+      <c r="T16">
+        <v>0.0001634059503489227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.120934</v>
+      </c>
+      <c r="I17">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J17">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N17">
+        <v>132.394922</v>
+      </c>
+      <c r="O17">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P17">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q17">
+        <v>1.779005277460889</v>
+      </c>
+      <c r="R17">
+        <v>16.011047497148</v>
+      </c>
+      <c r="S17">
+        <v>0.001339365428339294</v>
+      </c>
+      <c r="T17">
+        <v>0.001424887397501006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.13913704057589</v>
-      </c>
-      <c r="H11">
-        <v>1.13913704057589</v>
-      </c>
-      <c r="I11">
-        <v>0.09414993727141244</v>
-      </c>
-      <c r="J11">
-        <v>0.09414993727141244</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="N11">
-        <v>9.24460758561141</v>
-      </c>
-      <c r="O11">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="P11">
-        <v>0.1013142172794192</v>
-      </c>
-      <c r="Q11">
-        <v>10.53087492635881</v>
-      </c>
-      <c r="R11">
-        <v>10.53087492635881</v>
-      </c>
-      <c r="S11">
-        <v>0.009538727201559568</v>
-      </c>
-      <c r="T11">
-        <v>0.009538727201559568</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.120934</v>
+      </c>
+      <c r="I18">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J18">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N18">
+        <v>44.79778</v>
+      </c>
+      <c r="O18">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P18">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q18">
+        <v>0.6019527473911112</v>
+      </c>
+      <c r="R18">
+        <v>5.417574726520001</v>
+      </c>
+      <c r="S18">
+        <v>0.0004531941020996974</v>
+      </c>
+      <c r="T18">
+        <v>0.0004821317252486666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.120934</v>
+      </c>
+      <c r="I19">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J19">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N19">
+        <v>40.830724</v>
+      </c>
+      <c r="O19">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P19">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q19">
+        <v>0.5486469751351111</v>
+      </c>
+      <c r="R19">
+        <v>4.937822776216</v>
+      </c>
+      <c r="S19">
+        <v>0.0004130616137956068</v>
+      </c>
+      <c r="T19">
+        <v>0.0004394366730956787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.120934</v>
+      </c>
+      <c r="I20">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J20">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.584752</v>
+      </c>
+      <c r="N20">
+        <v>52.754256</v>
+      </c>
+      <c r="O20">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P20">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q20">
+        <v>0.7088647994559999</v>
+      </c>
+      <c r="R20">
+        <v>6.379783195103999</v>
+      </c>
+      <c r="S20">
+        <v>0.0005336853227962985</v>
+      </c>
+      <c r="T20">
+        <v>0.0005677625199170543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.120934</v>
+      </c>
+      <c r="I21">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J21">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N21">
+        <v>19.380275</v>
+      </c>
+      <c r="O21">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P21">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q21">
+        <v>0.3906223628083333</v>
+      </c>
+      <c r="R21">
+        <v>2.34373417685</v>
+      </c>
+      <c r="S21">
+        <v>0.0002940891153669963</v>
+      </c>
+      <c r="T21">
+        <v>0.0002085783139598346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1413485</v>
+      </c>
+      <c r="H22">
+        <v>2.282697</v>
+      </c>
+      <c r="I22">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J22">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>44.13164066666667</v>
+      </c>
+      <c r="N22">
+        <v>132.394922</v>
+      </c>
+      <c r="O22">
+        <v>0.4415399811720331</v>
+      </c>
+      <c r="P22">
+        <v>0.4562856844211927</v>
+      </c>
+      <c r="Q22">
+        <v>50.369581877439</v>
+      </c>
+      <c r="R22">
+        <v>302.217491264634</v>
+      </c>
+      <c r="S22">
+        <v>0.03792190920469622</v>
+      </c>
+      <c r="T22">
+        <v>0.02689554788242641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1413485</v>
+      </c>
+      <c r="H23">
+        <v>2.282697</v>
+      </c>
+      <c r="I23">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J23">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.93259333333333</v>
+      </c>
+      <c r="N23">
+        <v>44.79778</v>
+      </c>
+      <c r="O23">
+        <v>0.1494015830739255</v>
+      </c>
+      <c r="P23">
+        <v>0.1543910098595022</v>
+      </c>
+      <c r="Q23">
+        <v>17.04329300211</v>
+      </c>
+      <c r="R23">
+        <v>102.25975801266</v>
+      </c>
+      <c r="S23">
+        <v>0.01283143885029032</v>
+      </c>
+      <c r="T23">
+        <v>0.009100506415317077</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1413485</v>
+      </c>
+      <c r="H24">
+        <v>2.282697</v>
+      </c>
+      <c r="I24">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J24">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>13.61024133333333</v>
+      </c>
+      <c r="N24">
+        <v>40.830724</v>
+      </c>
+      <c r="O24">
+        <v>0.1361713639304118</v>
+      </c>
+      <c r="P24">
+        <v>0.1407189532975654</v>
+      </c>
+      <c r="Q24">
+        <v>15.534028530438</v>
+      </c>
+      <c r="R24">
+        <v>93.20417118262799</v>
+      </c>
+      <c r="S24">
+        <v>0.01169515405047038</v>
+      </c>
+      <c r="T24">
+        <v>0.008294613387182152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1413485</v>
+      </c>
+      <c r="H25">
+        <v>2.282697</v>
+      </c>
+      <c r="I25">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J25">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>17.584752</v>
+      </c>
+      <c r="N25">
+        <v>52.754256</v>
+      </c>
+      <c r="O25">
+        <v>0.1759366057935712</v>
+      </c>
+      <c r="P25">
+        <v>0.1818121982434553</v>
+      </c>
+      <c r="Q25">
+        <v>20.070330318072</v>
+      </c>
+      <c r="R25">
+        <v>120.421981908432</v>
+      </c>
+      <c r="S25">
+        <v>0.01511041417580427</v>
+      </c>
+      <c r="T25">
+        <v>0.01071683563701771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.1413485</v>
+      </c>
+      <c r="H26">
+        <v>2.282697</v>
+      </c>
+      <c r="I26">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J26">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.690137500000001</v>
+      </c>
+      <c r="N26">
+        <v>19.380275</v>
+      </c>
+      <c r="O26">
+        <v>0.09695046603005844</v>
+      </c>
+      <c r="P26">
+        <v>0.06679215417828435</v>
+      </c>
+      <c r="Q26">
+        <v>11.05982390041875</v>
+      </c>
+      <c r="R26">
+        <v>44.239295601675</v>
+      </c>
+      <c r="S26">
+        <v>0.008326645212027589</v>
+      </c>
+      <c r="T26">
+        <v>0.003937032526346376</v>
       </c>
     </row>
   </sheetData>
